--- a/4.其它/IT人.xlsx
+++ b/4.其它/IT人.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="前端" sheetId="1" r:id="rId1"/>
-    <sheet name="後端" sheetId="2" r:id="rId2"/>
-    <sheet name="資料庫" sheetId="3" r:id="rId3"/>
+    <sheet name="Vue" sheetId="6" r:id="rId1"/>
+    <sheet name="HTML" sheetId="1" r:id="rId2"/>
+    <sheet name="CSS" sheetId="4" r:id="rId3"/>
+    <sheet name="JS" sheetId="5" r:id="rId4"/>
+    <sheet name="SpringBoot" sheetId="8" r:id="rId5"/>
+    <sheet name="後端" sheetId="2" r:id="rId6"/>
+    <sheet name="資料庫" sheetId="3" r:id="rId7"/>
+    <sheet name="其它" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HTML入門</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,11 +54,83 @@
     <t>https://iter01.com/441404.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>前端實現複製功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/669440.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS技術筆記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/558434.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESLint + Prettier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/666943.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ant-design-vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/441404.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022招聘季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/672475.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正規表示式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/672661.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22個vscode外掛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/565283.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel匯入匯出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/534743.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iter01.com/565311.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -414,7 +491,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -431,28 +588,45 @@
         <v>1</v>
       </c>
     </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -460,21 +634,95 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -493,13 +741,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,4 +762,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>